--- a/data/pca/factorExposure/factorExposure_2019-02-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1117155326809536</v>
+        <v>-0.06751290089354191</v>
       </c>
       <c r="C2">
-        <v>0.01537408727010688</v>
+        <v>-0.03342012104274737</v>
       </c>
       <c r="D2">
-        <v>-0.04479931167529082</v>
+        <v>-0.01716182053901037</v>
       </c>
       <c r="E2">
-        <v>-0.08340096001476288</v>
+        <v>-0.03974081945503197</v>
       </c>
       <c r="F2">
-        <v>-0.1134987443238943</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1353833760217353</v>
+      </c>
+      <c r="G2">
+        <v>-0.06849974072263508</v>
+      </c>
+      <c r="H2">
+        <v>0.04749710598647397</v>
+      </c>
+      <c r="I2">
+        <v>-0.07207087009567864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2202685723068856</v>
+        <v>-0.1603536444680778</v>
       </c>
       <c r="C3">
-        <v>0.1423413758868231</v>
+        <v>-0.1049855113828017</v>
       </c>
       <c r="D3">
-        <v>0.04252432492537823</v>
+        <v>0.007726081528669793</v>
       </c>
       <c r="E3">
-        <v>-0.1091558796491892</v>
+        <v>0.001982333482462317</v>
       </c>
       <c r="F3">
-        <v>-0.3311952480289257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3767738860775657</v>
+      </c>
+      <c r="G3">
+        <v>-0.2734571940546566</v>
+      </c>
+      <c r="H3">
+        <v>0.05968056613753414</v>
+      </c>
+      <c r="I3">
+        <v>-0.3263920612869832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09776923448859906</v>
+        <v>-0.07240260894936798</v>
       </c>
       <c r="C4">
-        <v>0.04612640418534871</v>
+        <v>-0.04745334881562688</v>
       </c>
       <c r="D4">
-        <v>-0.03336719833947362</v>
+        <v>0.01619925308283768</v>
       </c>
       <c r="E4">
-        <v>-0.01949731440469389</v>
+        <v>-0.04123477678679314</v>
       </c>
       <c r="F4">
-        <v>-0.07205285600859061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07949197140111287</v>
+      </c>
+      <c r="G4">
+        <v>-0.02830765741835632</v>
+      </c>
+      <c r="H4">
+        <v>0.04417562330762639</v>
+      </c>
+      <c r="I4">
+        <v>-0.04199304103715982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.0206920507200497</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.01032669618019946</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005041996743943482</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005621052568178098</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.00750906422437245</v>
+      </c>
+      <c r="G6">
+        <v>0.01192435559142625</v>
+      </c>
+      <c r="H6">
+        <v>-0.01988592276230614</v>
+      </c>
+      <c r="I6">
+        <v>0.01559615313842351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04596057749649393</v>
+        <v>-0.03468309336836466</v>
       </c>
       <c r="C7">
-        <v>0.0208331263752198</v>
+        <v>-0.01759864247254466</v>
       </c>
       <c r="D7">
-        <v>-0.03114923265153942</v>
+        <v>0.03660981249147269</v>
       </c>
       <c r="E7">
-        <v>-0.05541960928836381</v>
+        <v>-0.02813241725412637</v>
       </c>
       <c r="F7">
-        <v>-0.0414164423263015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.04854641948975792</v>
+      </c>
+      <c r="G7">
+        <v>-0.05264360961983272</v>
+      </c>
+      <c r="H7">
+        <v>-0.005343293762068957</v>
+      </c>
+      <c r="I7">
+        <v>-0.01770952756036839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.0504454523273121</v>
+        <v>-0.02853204429943235</v>
       </c>
       <c r="C8">
-        <v>0.05641920431854071</v>
+        <v>-0.05109122974322064</v>
       </c>
       <c r="D8">
-        <v>-0.01045330647217467</v>
+        <v>0.01352488298847589</v>
       </c>
       <c r="E8">
-        <v>-0.01106983673428373</v>
+        <v>-0.02146992295651945</v>
       </c>
       <c r="F8">
-        <v>-0.07303538361762245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.07172018173088196</v>
+      </c>
+      <c r="G8">
+        <v>-0.04694047679945442</v>
+      </c>
+      <c r="H8">
+        <v>0.03602480358900298</v>
+      </c>
+      <c r="I8">
+        <v>-0.05194404193588508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08430903938831952</v>
+        <v>-0.06133489194037515</v>
       </c>
       <c r="C9">
-        <v>0.04123793888081949</v>
+        <v>-0.04312382318542679</v>
       </c>
       <c r="D9">
-        <v>-0.04085666016059721</v>
+        <v>0.01979041586589941</v>
       </c>
       <c r="E9">
-        <v>0.001889792735120056</v>
+        <v>-0.03611186020438579</v>
       </c>
       <c r="F9">
-        <v>-0.06746723581662022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.07859692175764135</v>
+      </c>
+      <c r="G9">
+        <v>-0.0267698888391131</v>
+      </c>
+      <c r="H9">
+        <v>0.04041831228306563</v>
+      </c>
+      <c r="I9">
+        <v>-0.01868648541058791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02606986058624814</v>
+        <v>-0.03690007169157034</v>
       </c>
       <c r="C10">
-        <v>-0.1647627203844124</v>
+        <v>0.1615198476888767</v>
       </c>
       <c r="D10">
-        <v>0.02733805047936863</v>
+        <v>-0.0141655324486952</v>
       </c>
       <c r="E10">
-        <v>-0.05735849006965151</v>
+        <v>0.03660258210349909</v>
       </c>
       <c r="F10">
-        <v>-0.04387954403575078</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.06485059913157805</v>
+      </c>
+      <c r="G10">
+        <v>-0.01213388694334446</v>
+      </c>
+      <c r="H10">
+        <v>0.03559640076743294</v>
+      </c>
+      <c r="I10">
+        <v>-0.09504443372683689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05894361740721817</v>
+        <v>-0.04919704096511412</v>
       </c>
       <c r="C11">
-        <v>0.01644797712819988</v>
+        <v>-0.03233617129800002</v>
       </c>
       <c r="D11">
-        <v>0.004049882818971782</v>
+        <v>-0.00501587734072138</v>
       </c>
       <c r="E11">
-        <v>-0.0278223837358219</v>
+        <v>-0.01056170860947659</v>
       </c>
       <c r="F11">
-        <v>-0.03319194873037891</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03759235343818299</v>
+      </c>
+      <c r="G11">
+        <v>-0.003648644313892092</v>
+      </c>
+      <c r="H11">
+        <v>0.01436910489126362</v>
+      </c>
+      <c r="I11">
+        <v>-0.001606290079675713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04680198488739673</v>
+        <v>-0.04430143329740925</v>
       </c>
       <c r="C12">
-        <v>0.01973810793469795</v>
+        <v>-0.02899454961451615</v>
       </c>
       <c r="D12">
-        <v>0.001438492813647887</v>
+        <v>0.006071063944926779</v>
       </c>
       <c r="E12">
-        <v>-0.00749702655020019</v>
+        <v>-0.01121084449453952</v>
       </c>
       <c r="F12">
-        <v>-0.02839904908256186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01475939864101085</v>
+      </c>
+      <c r="G12">
+        <v>-0.004753289243490936</v>
+      </c>
+      <c r="H12">
+        <v>0.003360403415526145</v>
+      </c>
+      <c r="I12">
+        <v>0.0009310993466321252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06363752447680379</v>
+        <v>-0.04365586650886396</v>
       </c>
       <c r="C13">
-        <v>0.03098018397851321</v>
+        <v>-0.026310716505457</v>
       </c>
       <c r="D13">
-        <v>0.002770721027725507</v>
+        <v>-0.01473575429882102</v>
       </c>
       <c r="E13">
-        <v>-0.06573287490947256</v>
+        <v>-0.009744681629701235</v>
       </c>
       <c r="F13">
-        <v>-0.09216082117696403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.1032637672896848</v>
+      </c>
+      <c r="G13">
+        <v>-0.04168620450633093</v>
+      </c>
+      <c r="H13">
+        <v>0.02643863988793203</v>
+      </c>
+      <c r="I13">
+        <v>-0.03298049243185853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.0349745479823349</v>
+        <v>-0.02703637627913867</v>
       </c>
       <c r="C14">
-        <v>0.02622434074381214</v>
+        <v>-0.02102928151293113</v>
       </c>
       <c r="D14">
-        <v>-0.02811180363637824</v>
+        <v>0.006710099931695805</v>
       </c>
       <c r="E14">
-        <v>-0.02646899774200679</v>
+        <v>-0.02749686160363684</v>
       </c>
       <c r="F14">
-        <v>-0.01628945544164571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03532772536549863</v>
+      </c>
+      <c r="G14">
+        <v>-0.05702889835868247</v>
+      </c>
+      <c r="H14">
+        <v>0.01079267085451259</v>
+      </c>
+      <c r="I14">
+        <v>-0.01321097074220509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04982951427519557</v>
+        <v>-0.04230817436409286</v>
       </c>
       <c r="C16">
-        <v>0.02516745489596892</v>
+        <v>-0.03618093562262673</v>
       </c>
       <c r="D16">
-        <v>0.005972476748979487</v>
+        <v>0.0004816016782110676</v>
       </c>
       <c r="E16">
-        <v>-0.01643960877850842</v>
+        <v>-0.009102499178258745</v>
       </c>
       <c r="F16">
-        <v>-0.02973944550006822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03422260856067339</v>
+      </c>
+      <c r="G16">
+        <v>-0.004306851746870552</v>
+      </c>
+      <c r="H16">
+        <v>0.004264946097205216</v>
+      </c>
+      <c r="I16">
+        <v>-0.008120651156325424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06484285935105247</v>
+        <v>-0.05130834083605625</v>
       </c>
       <c r="C19">
-        <v>0.04738846005714847</v>
+        <v>-0.04496596014710138</v>
       </c>
       <c r="D19">
-        <v>-0.003382239930239744</v>
+        <v>-0.001445069275906545</v>
       </c>
       <c r="E19">
-        <v>-0.04110352085313778</v>
+        <v>-0.02487529445324865</v>
       </c>
       <c r="F19">
-        <v>-0.07593057261872821</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.09020307739642665</v>
+      </c>
+      <c r="G19">
+        <v>-0.06483716076509186</v>
+      </c>
+      <c r="H19">
+        <v>0.006506171222592319</v>
+      </c>
+      <c r="I19">
+        <v>-0.0524276008906171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.04030305800271213</v>
+        <v>-0.01894889518177961</v>
       </c>
       <c r="C20">
-        <v>0.04021347960030245</v>
+        <v>-0.02946890463543419</v>
       </c>
       <c r="D20">
-        <v>-0.01854554017753078</v>
+        <v>0.006678835980719085</v>
       </c>
       <c r="E20">
-        <v>-0.02263873262867697</v>
+        <v>-0.02244776533908643</v>
       </c>
       <c r="F20">
-        <v>-0.06152970332254444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06317711476945596</v>
+      </c>
+      <c r="G20">
+        <v>-0.06053118878000695</v>
+      </c>
+      <c r="H20">
+        <v>0.003894196692944944</v>
+      </c>
+      <c r="I20">
+        <v>-0.05417064345455903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03335883826819721</v>
+        <v>-0.03217923001071419</v>
       </c>
       <c r="C21">
-        <v>0.0354088751551766</v>
+        <v>-0.02914349289915182</v>
       </c>
       <c r="D21">
-        <v>-0.007603421165778281</v>
+        <v>0.01299622568914021</v>
       </c>
       <c r="E21">
-        <v>-0.0669559724910207</v>
+        <v>-0.007572829792438121</v>
       </c>
       <c r="F21">
-        <v>-0.08401033338280596</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.08050918198297649</v>
+      </c>
+      <c r="G21">
+        <v>-0.02826488959058498</v>
+      </c>
+      <c r="H21">
+        <v>0.04451535384464791</v>
+      </c>
+      <c r="I21">
+        <v>0.01377953608996179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05145142495812096</v>
+        <v>-0.04183361757471464</v>
       </c>
       <c r="C24">
-        <v>0.02131594514313652</v>
+        <v>-0.02967397189798612</v>
       </c>
       <c r="D24">
-        <v>0.001666407751549923</v>
+        <v>0.0009373813305073741</v>
       </c>
       <c r="E24">
-        <v>-0.01799541065486877</v>
+        <v>-0.011349349647296</v>
       </c>
       <c r="F24">
-        <v>-0.03965454558107015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03820198809737844</v>
+      </c>
+      <c r="G24">
+        <v>-0.002725677867671545</v>
+      </c>
+      <c r="H24">
+        <v>0.00633086826148783</v>
+      </c>
+      <c r="I24">
+        <v>-0.002653636435413263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05265930571278452</v>
+        <v>-0.04830907975549222</v>
       </c>
       <c r="C25">
-        <v>0.01470026560847237</v>
+        <v>-0.0262097957045591</v>
       </c>
       <c r="D25">
-        <v>0.001885182616888293</v>
+        <v>-0.0003570871556746816</v>
       </c>
       <c r="E25">
-        <v>-0.02096164831355441</v>
+        <v>-0.009619681280657041</v>
       </c>
       <c r="F25">
-        <v>-0.03588496941892172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04360256172610161</v>
+      </c>
+      <c r="G25">
+        <v>-0.00265239440572302</v>
+      </c>
+      <c r="H25">
+        <v>0.01247179050247351</v>
+      </c>
+      <c r="I25">
+        <v>0.003468643140344113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02315537234494121</v>
+        <v>-0.01768981316749919</v>
       </c>
       <c r="C26">
-        <v>0.03316784596695043</v>
+        <v>-0.0268962803046468</v>
       </c>
       <c r="D26">
-        <v>-0.008001792089596844</v>
+        <v>-0.003533468342985481</v>
       </c>
       <c r="E26">
-        <v>-0.04324118384522921</v>
+        <v>-0.002361493006544223</v>
       </c>
       <c r="F26">
-        <v>-0.01644744970759675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04297933890646989</v>
+      </c>
+      <c r="G26">
+        <v>-0.03816601690836666</v>
+      </c>
+      <c r="H26">
+        <v>0.01059971844070045</v>
+      </c>
+      <c r="I26">
+        <v>-0.003476605786688006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1217118724730725</v>
+        <v>-0.07275079856185873</v>
       </c>
       <c r="C27">
-        <v>0.03358013012817823</v>
+        <v>-0.02788971679176867</v>
       </c>
       <c r="D27">
-        <v>-0.02097275545838984</v>
+        <v>0.005889737457937302</v>
       </c>
       <c r="E27">
-        <v>-0.02424949278597501</v>
+        <v>-0.03554618818411752</v>
       </c>
       <c r="F27">
-        <v>-0.07911204000963599</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.0641345579194449</v>
+      </c>
+      <c r="G27">
+        <v>-0.01746070778938864</v>
+      </c>
+      <c r="H27">
+        <v>0.02415317236891262</v>
+      </c>
+      <c r="I27">
+        <v>-0.03390663999440408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.02373300626129522</v>
+        <v>-0.05424002069819867</v>
       </c>
       <c r="C28">
-        <v>-0.2479396960548357</v>
+        <v>0.2405049044065985</v>
       </c>
       <c r="D28">
-        <v>0.03582068079718672</v>
+        <v>-0.01128478930095011</v>
       </c>
       <c r="E28">
-        <v>-0.03676140537631345</v>
+        <v>0.05117703603771526</v>
       </c>
       <c r="F28">
-        <v>-0.02403923973537531</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.05378288702658222</v>
+      </c>
+      <c r="G28">
+        <v>-0.009213432164545112</v>
+      </c>
+      <c r="H28">
+        <v>0.04165284131470799</v>
+      </c>
+      <c r="I28">
+        <v>-0.1450615864057199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02790381771542121</v>
+        <v>-0.023466582555522</v>
       </c>
       <c r="C29">
-        <v>0.02547147963035884</v>
+        <v>-0.0185203748612753</v>
       </c>
       <c r="D29">
-        <v>-0.03293265002453322</v>
+        <v>0.01009760906425178</v>
       </c>
       <c r="E29">
-        <v>-0.01967894045523531</v>
+        <v>-0.028399975112439</v>
       </c>
       <c r="F29">
-        <v>-0.02128296014237943</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03132618867012629</v>
+      </c>
+      <c r="G29">
+        <v>-0.05652210258436622</v>
+      </c>
+      <c r="H29">
+        <v>0.01528259939689298</v>
+      </c>
+      <c r="I29">
+        <v>-0.002214142676766415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.112488751464806</v>
+        <v>-0.08959653325119039</v>
       </c>
       <c r="C30">
-        <v>0.02410356024576131</v>
+        <v>-0.05101615200872083</v>
       </c>
       <c r="D30">
-        <v>-0.03053987032127555</v>
+        <v>-0.03638907063190114</v>
       </c>
       <c r="E30">
-        <v>-0.0611198336044407</v>
+        <v>-0.03372939470288779</v>
       </c>
       <c r="F30">
-        <v>-0.08956494182487047</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1045877291029986</v>
+      </c>
+      <c r="G30">
+        <v>-0.02043502061204545</v>
+      </c>
+      <c r="H30">
+        <v>-0.00967253908007857</v>
+      </c>
+      <c r="I30">
+        <v>0.003009225552845245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.07002523163317721</v>
+        <v>-0.06075763192192508</v>
       </c>
       <c r="C31">
-        <v>0.02121738337286965</v>
+        <v>-0.0218595764718632</v>
       </c>
       <c r="D31">
-        <v>-0.0182558251501164</v>
+        <v>-0.009510835261950982</v>
       </c>
       <c r="E31">
-        <v>-0.04073326242367416</v>
+        <v>-0.02424748089451094</v>
       </c>
       <c r="F31">
-        <v>0.05284963728642688</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.00358759574009789</v>
+      </c>
+      <c r="G31">
+        <v>-0.04554767877690564</v>
+      </c>
+      <c r="H31">
+        <v>0.02912859549250296</v>
+      </c>
+      <c r="I31">
+        <v>-0.01659855916498907</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.07183239878783336</v>
+        <v>-0.04269887277209113</v>
       </c>
       <c r="C32">
-        <v>0.04121401878759703</v>
+        <v>-0.04550924259846544</v>
       </c>
       <c r="D32">
-        <v>-0.02494815925290755</v>
+        <v>0.01685431692600544</v>
       </c>
       <c r="E32">
-        <v>-0.0460029190324879</v>
+        <v>-0.03694873071125391</v>
       </c>
       <c r="F32">
-        <v>-0.08341135513923614</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08367240951940549</v>
+      </c>
+      <c r="G32">
+        <v>-0.04171220934694862</v>
+      </c>
+      <c r="H32">
+        <v>0.02107342570664852</v>
+      </c>
+      <c r="I32">
+        <v>-0.04099698467633715</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06841179437868401</v>
+        <v>-0.05667842188923475</v>
       </c>
       <c r="C33">
-        <v>0.05874882203817235</v>
+        <v>-0.05432192817238934</v>
       </c>
       <c r="D33">
-        <v>-0.01699527776155889</v>
+        <v>-0.017356163826172</v>
       </c>
       <c r="E33">
-        <v>-0.05737240142016885</v>
+        <v>-0.0166007759918858</v>
       </c>
       <c r="F33">
-        <v>-0.04984720474677917</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07320931594683922</v>
+      </c>
+      <c r="G33">
+        <v>-0.04482791240150433</v>
+      </c>
+      <c r="H33">
+        <v>0.03585012336944848</v>
+      </c>
+      <c r="I33">
+        <v>-0.005167899118187908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.05102469859585565</v>
+        <v>-0.04340916432677847</v>
       </c>
       <c r="C34">
-        <v>0.02229227380715812</v>
+        <v>-0.03453338303195281</v>
       </c>
       <c r="D34">
-        <v>-0.003838005258706097</v>
+        <v>0.005821504298272859</v>
       </c>
       <c r="E34">
-        <v>-0.01545789048599375</v>
+        <v>-0.01831220616191036</v>
       </c>
       <c r="F34">
-        <v>-0.02435254130930689</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03301288279603211</v>
+      </c>
+      <c r="G34">
+        <v>-0.009186502814611534</v>
+      </c>
+      <c r="H34">
+        <v>0.00754598165815762</v>
+      </c>
+      <c r="I34">
+        <v>-0.003350010564549226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01715750918932583</v>
+        <v>-0.01600084080611249</v>
       </c>
       <c r="C36">
-        <v>0.00310041224029164</v>
+        <v>-0.004212826750812881</v>
       </c>
       <c r="D36">
-        <v>-0.01215073303657888</v>
+        <v>0.004856503693576021</v>
       </c>
       <c r="E36">
-        <v>-0.01742587645906118</v>
+        <v>-0.01000682786656359</v>
       </c>
       <c r="F36">
-        <v>-0.01128915957028465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02447855650511992</v>
+      </c>
+      <c r="G36">
+        <v>-0.03991253795794253</v>
+      </c>
+      <c r="H36">
+        <v>0.0166265550220904</v>
+      </c>
+      <c r="I36">
+        <v>0.006681098336293942</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.04574915849093535</v>
+        <v>-0.03540092181921722</v>
       </c>
       <c r="C38">
-        <v>0.02330272198593994</v>
+        <v>-0.01568677625765419</v>
       </c>
       <c r="D38">
-        <v>-0.02110949146420481</v>
+        <v>0.004232296866193463</v>
       </c>
       <c r="E38">
-        <v>-0.00560787525652259</v>
+        <v>-0.01274925865784933</v>
       </c>
       <c r="F38">
-        <v>-0.02527175385101027</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04814755569251549</v>
+      </c>
+      <c r="G38">
+        <v>-0.02630051320691859</v>
+      </c>
+      <c r="H38">
+        <v>0.02608373429473505</v>
+      </c>
+      <c r="I38">
+        <v>0.01531919086618561</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07109875929001527</v>
+        <v>-0.05355529447162807</v>
       </c>
       <c r="C39">
-        <v>0.02675475992205805</v>
+        <v>-0.04678721087750706</v>
       </c>
       <c r="D39">
-        <v>-0.006163121966777296</v>
+        <v>-0.003827725948474121</v>
       </c>
       <c r="E39">
-        <v>-0.03319866303168572</v>
+        <v>-0.0197878515939121</v>
       </c>
       <c r="F39">
-        <v>-0.02424828886157361</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05439701613660582</v>
+      </c>
+      <c r="G39">
+        <v>-0.004663461710743568</v>
+      </c>
+      <c r="H39">
+        <v>0.02078121896869255</v>
+      </c>
+      <c r="I39">
+        <v>0.02373999243745099</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07785949414420769</v>
+        <v>-0.05465526920857009</v>
       </c>
       <c r="C40">
-        <v>0.04286168903831598</v>
+        <v>-0.04223032328739525</v>
       </c>
       <c r="D40">
-        <v>-0.01112867990183022</v>
+        <v>-0.0185222859622374</v>
       </c>
       <c r="E40">
-        <v>-0.03961715779069128</v>
+        <v>-0.02520712765589237</v>
       </c>
       <c r="F40">
-        <v>-0.101047282891604</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.09382783380016925</v>
+      </c>
+      <c r="G40">
+        <v>-0.04699584812143411</v>
+      </c>
+      <c r="H40">
+        <v>0.02615669112580893</v>
+      </c>
+      <c r="I40">
+        <v>-0.05761449427722651</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.0007652464296310555</v>
+        <v>-0.003512057781183521</v>
       </c>
       <c r="C41">
-        <v>0.03334471896053225</v>
+        <v>-0.0120255889200229</v>
       </c>
       <c r="D41">
-        <v>-0.02737247906774039</v>
+        <v>0.0004906156636858903</v>
       </c>
       <c r="E41">
-        <v>-0.02039302536074563</v>
+        <v>-0.0100419120497358</v>
       </c>
       <c r="F41">
-        <v>0.01057717074549116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.01034072907856934</v>
+      </c>
+      <c r="G41">
+        <v>-0.04082326709478813</v>
+      </c>
+      <c r="H41">
+        <v>0.03420592109165258</v>
+      </c>
+      <c r="I41">
+        <v>-0.02387407515573075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1297872783019629</v>
+        <v>-0.2247211086834167</v>
       </c>
       <c r="C42">
-        <v>0.2268675887440817</v>
+        <v>-0.2703564525565527</v>
       </c>
       <c r="D42">
-        <v>0.9290405586084709</v>
+        <v>-0.0514486704145888</v>
       </c>
       <c r="E42">
-        <v>0.01034954642841902</v>
+        <v>0.9049335059240801</v>
       </c>
       <c r="F42">
-        <v>0.09776110515207023</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1540380797397068</v>
+      </c>
+      <c r="G42">
+        <v>0.01154880190412432</v>
+      </c>
+      <c r="H42">
+        <v>-0.01121174246783452</v>
+      </c>
+      <c r="I42">
+        <v>-0.06136758202940248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.006259723923387611</v>
+        <v>-0.008303921806854762</v>
       </c>
       <c r="C43">
-        <v>0.03316874277755648</v>
+        <v>-0.01332051465348083</v>
       </c>
       <c r="D43">
-        <v>-0.02127503844084132</v>
+        <v>-0.002316340143175762</v>
       </c>
       <c r="E43">
-        <v>-0.03066185946889618</v>
+        <v>-0.009746202962667906</v>
       </c>
       <c r="F43">
-        <v>-0.01637451513375685</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.02454299964327531</v>
+      </c>
+      <c r="G43">
+        <v>-0.03400177519509982</v>
+      </c>
+      <c r="H43">
+        <v>0.01960230943757476</v>
+      </c>
+      <c r="I43">
+        <v>-0.02295141870289627</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04401049422773567</v>
+        <v>-0.02924060095636995</v>
       </c>
       <c r="C44">
-        <v>0.04718247531467427</v>
+        <v>-0.03956963412656977</v>
       </c>
       <c r="D44">
-        <v>-0.01544112983643793</v>
+        <v>0.00329307799010794</v>
       </c>
       <c r="E44">
-        <v>-0.08381528324414604</v>
+        <v>-0.01440517486184416</v>
       </c>
       <c r="F44">
-        <v>-0.09365310263304988</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1177778246786566</v>
+      </c>
+      <c r="G44">
+        <v>-0.09827079539215432</v>
+      </c>
+      <c r="H44">
+        <v>0.04763468936038266</v>
+      </c>
+      <c r="I44">
+        <v>-0.04868173426501708</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03061304690868995</v>
+        <v>-0.02550386824865052</v>
       </c>
       <c r="C46">
-        <v>0.03006711876236596</v>
+        <v>-0.03516672768472722</v>
       </c>
       <c r="D46">
-        <v>-0.03462876676722032</v>
+        <v>-0.001721449624189827</v>
       </c>
       <c r="E46">
-        <v>-0.03292331636530299</v>
+        <v>-0.03196974398727616</v>
       </c>
       <c r="F46">
-        <v>-0.008657532014842734</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04397879717963659</v>
+      </c>
+      <c r="G46">
+        <v>-0.06050142564437178</v>
+      </c>
+      <c r="H46">
+        <v>0.01193339010241068</v>
+      </c>
+      <c r="I46">
+        <v>-0.005566538421910793</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09626694172219885</v>
+        <v>-0.08716965076434623</v>
       </c>
       <c r="C47">
-        <v>0.01426175525643645</v>
+        <v>-0.01869469767849272</v>
       </c>
       <c r="D47">
-        <v>-0.02169236693723109</v>
+        <v>-0.003940281443667909</v>
       </c>
       <c r="E47">
-        <v>-0.002856727429470691</v>
+        <v>-0.02659288191969252</v>
       </c>
       <c r="F47">
-        <v>0.03025535149337538</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01609130816772412</v>
+      </c>
+      <c r="G47">
+        <v>-0.06017456699632465</v>
+      </c>
+      <c r="H47">
+        <v>0.02466043163237409</v>
+      </c>
+      <c r="I47">
+        <v>-0.03322404917236523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02045577458250743</v>
+        <v>-0.02058505921974893</v>
       </c>
       <c r="C48">
-        <v>0.02716664653267646</v>
+        <v>-0.01992480368314042</v>
       </c>
       <c r="D48">
-        <v>-0.01887220085320106</v>
+        <v>0.001760861446099339</v>
       </c>
       <c r="E48">
-        <v>-0.02489338517015301</v>
+        <v>-0.01495393117626048</v>
       </c>
       <c r="F48">
-        <v>-0.01409804506644703</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02448559463083483</v>
+      </c>
+      <c r="G48">
+        <v>-0.02650668692696996</v>
+      </c>
+      <c r="H48">
+        <v>0.01363086475739551</v>
+      </c>
+      <c r="I48">
+        <v>-0.01309173889301024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09239168771891168</v>
+        <v>-0.08771104925386813</v>
       </c>
       <c r="C50">
-        <v>0.03798862479636042</v>
+        <v>-0.03959420814624048</v>
       </c>
       <c r="D50">
-        <v>-0.02426775699996815</v>
+        <v>0.01219806012215141</v>
       </c>
       <c r="E50">
-        <v>-0.02016735958396609</v>
+        <v>-0.02715118994463243</v>
       </c>
       <c r="F50">
-        <v>0.03739727266479179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.008196042210727486</v>
+      </c>
+      <c r="G50">
+        <v>-0.03562811797410537</v>
+      </c>
+      <c r="H50">
+        <v>-0.01257622315944392</v>
+      </c>
+      <c r="I50">
+        <v>0.005546300994337881</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05940169148464171</v>
+        <v>-0.03910415925851023</v>
       </c>
       <c r="C51">
-        <v>-0.01171883780666741</v>
+        <v>0.004182573514442512</v>
       </c>
       <c r="D51">
-        <v>-0.006297698820970393</v>
+        <v>-0.01159499215579963</v>
       </c>
       <c r="E51">
-        <v>-0.07989546287657917</v>
+        <v>-0.01113235429541198</v>
       </c>
       <c r="F51">
-        <v>-0.03791017505889981</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.09154883178163038</v>
+      </c>
+      <c r="G51">
+        <v>-0.06684510734044607</v>
+      </c>
+      <c r="H51">
+        <v>0.04812067013934927</v>
+      </c>
+      <c r="I51">
+        <v>-0.02390395704948063</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1365756462137878</v>
+        <v>-0.1246178948463487</v>
       </c>
       <c r="C53">
-        <v>0.03071816706699294</v>
+        <v>-0.03844203972773472</v>
       </c>
       <c r="D53">
-        <v>-0.04500981501650453</v>
+        <v>-0.003866682246961099</v>
       </c>
       <c r="E53">
-        <v>0.0077714984493032</v>
+        <v>-0.05674210235511912</v>
       </c>
       <c r="F53">
-        <v>0.06234592847614082</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.04903200166429723</v>
+      </c>
+      <c r="G53">
+        <v>-0.007239847039689924</v>
+      </c>
+      <c r="H53">
+        <v>0.02955313427096234</v>
+      </c>
+      <c r="I53">
+        <v>-0.04145778184540244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.0293050173148568</v>
+        <v>-0.02633419638044062</v>
       </c>
       <c r="C54">
-        <v>0.0104788908572324</v>
+        <v>-0.004902748101942023</v>
       </c>
       <c r="D54">
-        <v>-0.03226116703195512</v>
+        <v>0.005872242119343994</v>
       </c>
       <c r="E54">
-        <v>-0.02816596180842408</v>
+        <v>-0.02802538798382233</v>
       </c>
       <c r="F54">
-        <v>-0.01636756356888567</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02942797063538108</v>
+      </c>
+      <c r="G54">
+        <v>-0.05733759823454138</v>
+      </c>
+      <c r="H54">
+        <v>0.02896988228598207</v>
+      </c>
+      <c r="I54">
+        <v>-0.02247905564369805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1014420560187745</v>
+        <v>-0.09823957829501996</v>
       </c>
       <c r="C55">
-        <v>0.006110380532950021</v>
+        <v>-0.03273082657338652</v>
       </c>
       <c r="D55">
-        <v>-0.03951456012815223</v>
+        <v>0.01315322952190734</v>
       </c>
       <c r="E55">
-        <v>0.03954702183767211</v>
+        <v>-0.03711822484738629</v>
       </c>
       <c r="F55">
-        <v>0.00704613928543765</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.0344584774654834</v>
+      </c>
+      <c r="G55">
+        <v>-0.01390976409044625</v>
+      </c>
+      <c r="H55">
+        <v>-0.00978699629811779</v>
+      </c>
+      <c r="I55">
+        <v>-0.01666219123819854</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1734610369937418</v>
+        <v>-0.1637276496710849</v>
       </c>
       <c r="C56">
-        <v>-0.008714311594960342</v>
+        <v>-0.02076192484137314</v>
       </c>
       <c r="D56">
-        <v>-0.08452881818149305</v>
+        <v>0.001003819480679828</v>
       </c>
       <c r="E56">
-        <v>0.06791932957806521</v>
+        <v>-0.08831658686801941</v>
       </c>
       <c r="F56">
-        <v>0.08614970099809251</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09310373111082863</v>
+      </c>
+      <c r="G56">
+        <v>0.04652031477171469</v>
+      </c>
+      <c r="H56">
+        <v>-0.005615450512818755</v>
+      </c>
+      <c r="I56">
+        <v>-0.04306508066329733</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08210482394337047</v>
+        <v>-0.06524192862190178</v>
       </c>
       <c r="C57">
-        <v>0.03277257048681922</v>
+        <v>-0.03275519317956225</v>
       </c>
       <c r="D57">
-        <v>-0.01598897094550954</v>
+        <v>-0.0175222511237901</v>
       </c>
       <c r="E57">
-        <v>-0.05737371412175985</v>
+        <v>-0.006550133141611248</v>
       </c>
       <c r="F57">
-        <v>-0.0175227612264813</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.06438994005312877</v>
+      </c>
+      <c r="G57">
+        <v>-0.03053798009727504</v>
+      </c>
+      <c r="H57">
+        <v>0.01630422802665412</v>
+      </c>
+      <c r="I57">
+        <v>-0.007775731481573188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1961994533628919</v>
+        <v>-0.2084380228161011</v>
       </c>
       <c r="C58">
-        <v>0.03547729894906725</v>
+        <v>-0.10627379081528</v>
       </c>
       <c r="D58">
-        <v>0.0005778368546655857</v>
+        <v>-0.08785891638246669</v>
       </c>
       <c r="E58">
-        <v>-0.09112109277003391</v>
+        <v>0.005777783721892554</v>
       </c>
       <c r="F58">
-        <v>-0.0955009572209965</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.27133766673359</v>
+      </c>
+      <c r="G58">
+        <v>-0.3482173724529362</v>
+      </c>
+      <c r="H58">
+        <v>-0.3567286588486263</v>
+      </c>
+      <c r="I58">
+        <v>0.3898907582388135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02594108684472193</v>
+        <v>-0.05315027637039584</v>
       </c>
       <c r="C59">
-        <v>-0.1984585439070675</v>
+        <v>0.1983843695560094</v>
       </c>
       <c r="D59">
-        <v>0.0007481047500231911</v>
+        <v>-0.02422640827422487</v>
       </c>
       <c r="E59">
-        <v>-0.03231427699447943</v>
+        <v>0.01496272248325148</v>
       </c>
       <c r="F59">
-        <v>-0.03541169187247561</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.06585323513662186</v>
+      </c>
+      <c r="G59">
+        <v>0.01622371717587542</v>
+      </c>
+      <c r="H59">
+        <v>0.01690860252536546</v>
+      </c>
+      <c r="I59">
+        <v>-0.05067036324894246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1894252685686671</v>
+        <v>-0.1917891249802094</v>
       </c>
       <c r="C60">
-        <v>-0.08182283991987843</v>
+        <v>0.05068300686638289</v>
       </c>
       <c r="D60">
-        <v>-0.005711401261486465</v>
+        <v>-0.0544011622462056</v>
       </c>
       <c r="E60">
-        <v>-0.1243018604186026</v>
+        <v>-0.01356075955346486</v>
       </c>
       <c r="F60">
-        <v>-0.137507430459375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1990344353609434</v>
+      </c>
+      <c r="G60">
+        <v>0.302334472990988</v>
+      </c>
+      <c r="H60">
+        <v>0.03108126830466229</v>
+      </c>
+      <c r="I60">
+        <v>0.08642006918508917</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04290576025025975</v>
+        <v>-0.03857076538471056</v>
       </c>
       <c r="C61">
-        <v>0.01216936608891742</v>
+        <v>-0.02930122919132579</v>
       </c>
       <c r="D61">
-        <v>-0.002173674158273137</v>
+        <v>0.001520499252293752</v>
       </c>
       <c r="E61">
-        <v>-0.01779450245274563</v>
+        <v>-0.008195209557984752</v>
       </c>
       <c r="F61">
-        <v>-0.02919840138539536</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03748940008405786</v>
+      </c>
+      <c r="G61">
+        <v>-0.0004647654611454334</v>
+      </c>
+      <c r="H61">
+        <v>0.01418688336344932</v>
+      </c>
+      <c r="I61">
+        <v>0.03257276166434273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04273795470180185</v>
+        <v>-0.03137729277961352</v>
       </c>
       <c r="C63">
-        <v>0.01966863114256069</v>
+        <v>-0.02306630836912637</v>
       </c>
       <c r="D63">
-        <v>-0.01428264236778731</v>
+        <v>-0.001042535615560994</v>
       </c>
       <c r="E63">
-        <v>-0.03697942450321166</v>
+        <v>-0.01563039619172529</v>
       </c>
       <c r="F63">
-        <v>-0.02002976216802612</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02756640947333079</v>
+      </c>
+      <c r="G63">
+        <v>-0.0489628111191297</v>
+      </c>
+      <c r="H63">
+        <v>0.001198844202579839</v>
+      </c>
+      <c r="I63">
+        <v>-0.03501089983668047</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.07484762268006574</v>
+        <v>-0.06016596531143139</v>
       </c>
       <c r="C64">
-        <v>0.05181043392567264</v>
+        <v>-0.04377325230905659</v>
       </c>
       <c r="D64">
-        <v>-0.05744390577477724</v>
+        <v>0.015647729329354</v>
       </c>
       <c r="E64">
-        <v>0.01209460052212603</v>
+        <v>-0.04343738938379256</v>
       </c>
       <c r="F64">
-        <v>-0.0417575190017353</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.0412329646480051</v>
+      </c>
+      <c r="G64">
+        <v>-0.01173583824887758</v>
+      </c>
+      <c r="H64">
+        <v>0.07290511966904274</v>
+      </c>
+      <c r="I64">
+        <v>-0.03431065700877819</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02260155876798383</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.0107252083347329</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.005673160419339541</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.00627375220371995</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.003965422308074178</v>
+      </c>
+      <c r="G65">
+        <v>0.0157831359586392</v>
+      </c>
+      <c r="H65">
+        <v>-0.01843175957183008</v>
+      </c>
+      <c r="I65">
+        <v>0.01661148093489799</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.07919733856624996</v>
+        <v>-0.06781860356618849</v>
       </c>
       <c r="C66">
-        <v>0.0380511663409407</v>
+        <v>-0.05527347493597008</v>
       </c>
       <c r="D66">
-        <v>-0.03314319350829814</v>
+        <v>-0.01112327277694041</v>
       </c>
       <c r="E66">
-        <v>-0.04821371655228131</v>
+        <v>-0.04825058973892207</v>
       </c>
       <c r="F66">
-        <v>-0.06081935291139585</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06745575431017539</v>
+      </c>
+      <c r="G66">
+        <v>-0.001452003010119944</v>
+      </c>
+      <c r="H66">
+        <v>0.009331701674646996</v>
+      </c>
+      <c r="I66">
+        <v>0.01109442734406204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05603385305807551</v>
+        <v>-0.04833119970789021</v>
       </c>
       <c r="C67">
-        <v>-0.004173457474974246</v>
+        <v>0.002928486622161456</v>
       </c>
       <c r="D67">
-        <v>-0.01009208602888023</v>
+        <v>-0.001851249736819963</v>
       </c>
       <c r="E67">
-        <v>-0.01150859619705926</v>
+        <v>-0.009042272042104223</v>
       </c>
       <c r="F67">
-        <v>-0.01550516665113292</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.0370981764411383</v>
+      </c>
+      <c r="G67">
+        <v>-0.0122188626730401</v>
+      </c>
+      <c r="H67">
+        <v>0.04021430081394017</v>
+      </c>
+      <c r="I67">
+        <v>0.03873731317720578</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.03970694115384837</v>
+        <v>-0.06418593612629876</v>
       </c>
       <c r="C68">
-        <v>-0.2423711801550337</v>
+        <v>0.2336753384828853</v>
       </c>
       <c r="D68">
-        <v>0.0204094362235474</v>
+        <v>-0.02549438129577529</v>
       </c>
       <c r="E68">
-        <v>-0.03514338389014084</v>
+        <v>0.03478789592827949</v>
       </c>
       <c r="F68">
-        <v>-0.02258639882484157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.04696033474117572</v>
+      </c>
+      <c r="G68">
+        <v>0.009325412631732182</v>
+      </c>
+      <c r="H68">
+        <v>-0.0062315509858315</v>
+      </c>
+      <c r="I68">
+        <v>-0.1258511522426016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07696774555304614</v>
+        <v>-0.07273759840464546</v>
       </c>
       <c r="C69">
-        <v>0.01223569952964462</v>
+        <v>-0.02012060045994046</v>
       </c>
       <c r="D69">
-        <v>-0.02554064114706335</v>
+        <v>-0.005336153696067869</v>
       </c>
       <c r="E69">
-        <v>-0.006550821461852584</v>
+        <v>-0.03116269792545695</v>
       </c>
       <c r="F69">
-        <v>0.02235833355627203</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.004179222694589107</v>
+      </c>
+      <c r="G69">
+        <v>-0.03540365475253726</v>
+      </c>
+      <c r="H69">
+        <v>0.01876945837589264</v>
+      </c>
+      <c r="I69">
+        <v>-0.006797977757309204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.0344985152360934</v>
+        <v>-0.05925488199063159</v>
       </c>
       <c r="C71">
-        <v>-0.2821311515428173</v>
+        <v>0.2511780833275994</v>
       </c>
       <c r="D71">
-        <v>0.03415412745129086</v>
+        <v>-0.02963331955155621</v>
       </c>
       <c r="E71">
-        <v>-0.08687285977003532</v>
+        <v>0.06172968746793911</v>
       </c>
       <c r="F71">
-        <v>-0.03312986380326834</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.06593807299022784</v>
+      </c>
+      <c r="G71">
+        <v>0.001854300149293642</v>
+      </c>
+      <c r="H71">
+        <v>0.02246108702258868</v>
+      </c>
+      <c r="I71">
+        <v>-0.1117047133157923</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1317171813103579</v>
+        <v>-0.1239311923805207</v>
       </c>
       <c r="C72">
-        <v>-0.02115524275414429</v>
+        <v>-0.02887274027939116</v>
       </c>
       <c r="D72">
-        <v>-0.04874896159640624</v>
+        <v>-0.005219178084996679</v>
       </c>
       <c r="E72">
-        <v>-0.02705157539686082</v>
+        <v>-0.07111667596608544</v>
       </c>
       <c r="F72">
-        <v>-0.06189857485107231</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.07858258934190109</v>
+      </c>
+      <c r="G72">
+        <v>0.02367665553305863</v>
+      </c>
+      <c r="H72">
+        <v>-0.0415742338200181</v>
+      </c>
+      <c r="I72">
+        <v>0.1171541108707779</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2906925580684547</v>
+        <v>-0.2751059469560881</v>
       </c>
       <c r="C73">
-        <v>-0.1780850835412203</v>
+        <v>0.07838184637593494</v>
       </c>
       <c r="D73">
-        <v>0.05882217084070551</v>
+        <v>-0.09302556991259216</v>
       </c>
       <c r="E73">
-        <v>-0.1999940591233828</v>
+        <v>0.03697777391005352</v>
       </c>
       <c r="F73">
-        <v>-0.2822368501079085</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.3150636574795309</v>
+      </c>
+      <c r="G73">
+        <v>0.4895333723340146</v>
+      </c>
+      <c r="H73">
+        <v>-0.01672153379474876</v>
+      </c>
+      <c r="I73">
+        <v>0.2594694913418405</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1550186438225739</v>
+        <v>-0.1495293641379523</v>
       </c>
       <c r="C74">
-        <v>0.02163816396953584</v>
+        <v>-0.03580883649348286</v>
       </c>
       <c r="D74">
-        <v>-0.03843333422214937</v>
+        <v>-0.01071851353839905</v>
       </c>
       <c r="E74">
-        <v>0.004894036393186166</v>
+        <v>-0.05069055508712788</v>
       </c>
       <c r="F74">
-        <v>0.05177943227747175</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06530079337278342</v>
+      </c>
+      <c r="G74">
+        <v>0.02602901243354415</v>
+      </c>
+      <c r="H74">
+        <v>-0.003263564869392466</v>
+      </c>
+      <c r="I74">
+        <v>-0.03535002438788522</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2364760928283245</v>
+        <v>-0.2422707243043215</v>
       </c>
       <c r="C75">
-        <v>0.01115473147570879</v>
+        <v>-0.0279254037720349</v>
       </c>
       <c r="D75">
-        <v>-0.07606041024981296</v>
+        <v>-0.0257780025177896</v>
       </c>
       <c r="E75">
-        <v>0.03851548947170148</v>
+        <v>-0.116405509608574</v>
       </c>
       <c r="F75">
-        <v>0.1437176536990405</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1490172970020114</v>
+      </c>
+      <c r="G75">
+        <v>0.02249680023966408</v>
+      </c>
+      <c r="H75">
+        <v>0.01338039993533062</v>
+      </c>
+      <c r="I75">
+        <v>-0.07768599869368184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2493992281424026</v>
+        <v>-0.2625666393593873</v>
       </c>
       <c r="C76">
-        <v>-0.02362450823884479</v>
+        <v>-0.01520945146768167</v>
       </c>
       <c r="D76">
-        <v>-0.1068637759655011</v>
+        <v>0.01398561375673518</v>
       </c>
       <c r="E76">
-        <v>0.09661243880074427</v>
+        <v>-0.1386610243737821</v>
       </c>
       <c r="F76">
-        <v>0.107655077097159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1841774663461756</v>
+      </c>
+      <c r="G76">
+        <v>0.05182315313209349</v>
+      </c>
+      <c r="H76">
+        <v>-0.05782283850762369</v>
+      </c>
+      <c r="I76">
+        <v>-0.05051211632923647</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.134273167428241</v>
+        <v>-0.120335375072532</v>
       </c>
       <c r="C77">
-        <v>0.06382884967225848</v>
+        <v>-0.07709976322882905</v>
       </c>
       <c r="D77">
-        <v>0.03314264279111258</v>
+        <v>-0.005338629341365833</v>
       </c>
       <c r="E77">
-        <v>-0.05669429334574685</v>
+        <v>0.03103041462917918</v>
       </c>
       <c r="F77">
-        <v>-0.1506716221696683</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1582633236702921</v>
+      </c>
+      <c r="G77">
+        <v>-0.1779140734136604</v>
+      </c>
+      <c r="H77">
+        <v>-0.03483230565813741</v>
+      </c>
+      <c r="I77">
+        <v>-0.2858995422763245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.09600636658754109</v>
+        <v>-0.07405498793589819</v>
       </c>
       <c r="C78">
-        <v>0.06370806102948309</v>
+        <v>-0.07603833411071634</v>
       </c>
       <c r="D78">
-        <v>0.01105971153606361</v>
+        <v>0.0068702149770198</v>
       </c>
       <c r="E78">
-        <v>-0.01738333782016405</v>
+        <v>-0.01174025465705132</v>
       </c>
       <c r="F78">
-        <v>-0.05098841103514444</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.07046726433053896</v>
+      </c>
+      <c r="G78">
+        <v>-0.01335596063522773</v>
+      </c>
+      <c r="H78">
+        <v>0.01415221381207048</v>
+      </c>
+      <c r="I78">
+        <v>-0.03993077212900719</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.06652761895350774</v>
+        <v>-0.1351902522618901</v>
       </c>
       <c r="C80">
-        <v>-0.04020158758397362</v>
+        <v>0.07049631949807476</v>
       </c>
       <c r="D80">
-        <v>0.04577227840233321</v>
+        <v>0.973068576172342</v>
       </c>
       <c r="E80">
-        <v>0.8435632584931292</v>
+        <v>0.06316661390431139</v>
       </c>
       <c r="F80">
-        <v>-0.4480704638146221</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.04961150000138646</v>
+      </c>
+      <c r="G80">
+        <v>0.03415634351649494</v>
+      </c>
+      <c r="H80">
+        <v>0.03902181241204637</v>
+      </c>
+      <c r="I80">
+        <v>0.06365718107848631</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1605132498834262</v>
+        <v>-0.1790879307747322</v>
       </c>
       <c r="C81">
-        <v>0.009849778017450808</v>
+        <v>-0.01195957709978748</v>
       </c>
       <c r="D81">
-        <v>-0.05329011123401178</v>
+        <v>-0.005177183309124505</v>
       </c>
       <c r="E81">
-        <v>0.07594951730311356</v>
+        <v>-0.0853223364775879</v>
       </c>
       <c r="F81">
-        <v>0.1572908489341861</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1582565246424488</v>
+      </c>
+      <c r="G81">
+        <v>0.00835880591312335</v>
+      </c>
+      <c r="H81">
+        <v>-0.02433174876433181</v>
+      </c>
+      <c r="I81">
+        <v>-0.04295250578381923</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09132759219199214</v>
+        <v>-0.06792480458579996</v>
       </c>
       <c r="C83">
-        <v>0.07616327417697472</v>
+        <v>-0.05830323771920762</v>
       </c>
       <c r="D83">
-        <v>0.06728322999917311</v>
+        <v>-0.01203278963018905</v>
       </c>
       <c r="E83">
-        <v>-0.05028255274552592</v>
+        <v>0.03411337710418821</v>
       </c>
       <c r="F83">
-        <v>0.00963583410107507</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04617530377692301</v>
+      </c>
+      <c r="G83">
+        <v>-0.05155881009314735</v>
+      </c>
+      <c r="H83">
+        <v>0.06167294177248191</v>
+      </c>
+      <c r="I83">
+        <v>-0.03859941803883667</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2385126809473041</v>
+        <v>-0.2473259461014811</v>
       </c>
       <c r="C85">
-        <v>0.04657409390255877</v>
+        <v>-0.05571658611271196</v>
       </c>
       <c r="D85">
-        <v>-0.06962447796978287</v>
+        <v>-0.003316794316763566</v>
       </c>
       <c r="E85">
-        <v>0.1025673367256878</v>
+        <v>-0.111532010747511</v>
       </c>
       <c r="F85">
-        <v>0.1262227278421472</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1845197118817473</v>
+      </c>
+      <c r="G85">
+        <v>-0.004312036566767975</v>
+      </c>
+      <c r="H85">
+        <v>-0.021628693727507</v>
+      </c>
+      <c r="I85">
+        <v>-0.06546292290924739</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04042065240615544</v>
+        <v>-0.02725045708172643</v>
       </c>
       <c r="C86">
-        <v>0.04878281739396439</v>
+        <v>-0.05087775868539027</v>
       </c>
       <c r="D86">
-        <v>-0.007147142401460165</v>
+        <v>0.0001786077393025434</v>
       </c>
       <c r="E86">
-        <v>-0.03508828895527911</v>
+        <v>-0.0169645887503797</v>
       </c>
       <c r="F86">
-        <v>-0.06062622526026817</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08090555694516408</v>
+      </c>
+      <c r="G86">
+        <v>-0.0679916221315839</v>
+      </c>
+      <c r="H86">
+        <v>0.00330184384056974</v>
+      </c>
+      <c r="I86">
+        <v>-0.0275985619199579</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.03135278601213479</v>
+        <v>-0.0341814150123768</v>
       </c>
       <c r="C87">
-        <v>-0.05353309917405998</v>
+        <v>0.008073598803086645</v>
       </c>
       <c r="D87">
-        <v>0.005276232063105844</v>
+        <v>-0.002012944416847876</v>
       </c>
       <c r="E87">
-        <v>-0.04761950954932694</v>
+        <v>0.001667624238674467</v>
       </c>
       <c r="F87">
-        <v>-0.09071140894603465</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1035224139743347</v>
+      </c>
+      <c r="G87">
+        <v>-0.005355161536326335</v>
+      </c>
+      <c r="H87">
+        <v>-0.01526854651773842</v>
+      </c>
+      <c r="I87">
+        <v>-0.007263998549185124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.02909632133197812</v>
+        <v>-0.03151565110893343</v>
       </c>
       <c r="C88">
-        <v>0.02653375091294392</v>
+        <v>-0.009831319126578886</v>
       </c>
       <c r="D88">
-        <v>-0.002618190069300861</v>
+        <v>0.008591312966783607</v>
       </c>
       <c r="E88">
-        <v>0.009366419399554191</v>
+        <v>-0.005351994052522309</v>
       </c>
       <c r="F88">
-        <v>0.008533638393980981</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01293456858726861</v>
+      </c>
+      <c r="G88">
+        <v>-0.03390805154171365</v>
+      </c>
+      <c r="H88">
+        <v>0.04153667419321479</v>
+      </c>
+      <c r="I88">
+        <v>0.01327667514212592</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.03709971897233499</v>
+        <v>-0.09340354983340833</v>
       </c>
       <c r="C89">
-        <v>-0.3870008977260354</v>
+        <v>0.3861534552307207</v>
       </c>
       <c r="D89">
-        <v>0.1000257995235931</v>
+        <v>-0.05959955271406564</v>
       </c>
       <c r="E89">
-        <v>-0.0522474165480183</v>
+        <v>0.07803955600705717</v>
       </c>
       <c r="F89">
-        <v>0.02990176346298795</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.03053410458020629</v>
+      </c>
+      <c r="G89">
+        <v>-0.06329379388317981</v>
+      </c>
+      <c r="H89">
+        <v>0.03182338433922595</v>
+      </c>
+      <c r="I89">
+        <v>-0.2170225391627146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.02706806535118112</v>
+        <v>-0.0599470835535609</v>
       </c>
       <c r="C90">
-        <v>-0.2979673656176431</v>
+        <v>0.3159633358202387</v>
       </c>
       <c r="D90">
-        <v>0.05277080196426655</v>
+        <v>-0.0300299623228518</v>
       </c>
       <c r="E90">
-        <v>-0.01672123023120126</v>
+        <v>0.06249715465648092</v>
       </c>
       <c r="F90">
-        <v>-0.04399241007848303</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.03105931771485608</v>
+      </c>
+      <c r="G90">
+        <v>-0.0123839209136393</v>
+      </c>
+      <c r="H90">
+        <v>0.01113353598123082</v>
+      </c>
+      <c r="I90">
+        <v>-0.1786346281167525</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2735057274889584</v>
+        <v>-0.2862317672796015</v>
       </c>
       <c r="C91">
-        <v>0.05198990114099915</v>
+        <v>-0.06099195058571596</v>
       </c>
       <c r="D91">
-        <v>-0.07844303426790884</v>
+        <v>-0.01190590208843129</v>
       </c>
       <c r="E91">
-        <v>0.1573148438012394</v>
+        <v>-0.1075694583500851</v>
       </c>
       <c r="F91">
-        <v>0.2299317238359379</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2758529172895564</v>
+      </c>
+      <c r="G91">
+        <v>0.01730403875405069</v>
+      </c>
+      <c r="H91">
+        <v>-0.04559787751172838</v>
+      </c>
+      <c r="I91">
+        <v>-0.08781676915960115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.06217653900663285</v>
+        <v>-0.132239539436725</v>
       </c>
       <c r="C92">
-        <v>-0.3969323020307293</v>
+        <v>0.4028225953422545</v>
       </c>
       <c r="D92">
-        <v>0.1626758060178441</v>
+        <v>-0.01729170184315484</v>
       </c>
       <c r="E92">
-        <v>0.1062043773133166</v>
+        <v>0.109440572991713</v>
       </c>
       <c r="F92">
-        <v>0.09645887461642076</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1209249683706903</v>
+      </c>
+      <c r="G92">
+        <v>-0.4531228189260794</v>
+      </c>
+      <c r="H92">
+        <v>-0.04646169636100453</v>
+      </c>
+      <c r="I92">
+        <v>0.4996209460217875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.02380669063028009</v>
+        <v>-0.07875194196784761</v>
       </c>
       <c r="C93">
-        <v>-0.3685442225756299</v>
+        <v>0.3893878664521498</v>
       </c>
       <c r="D93">
-        <v>0.08354606283243003</v>
+        <v>-0.05079793882381271</v>
       </c>
       <c r="E93">
-        <v>0.0008169819844021408</v>
+        <v>0.1065764734004139</v>
       </c>
       <c r="F93">
-        <v>0.02692376684041339</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.003990850821728571</v>
+      </c>
+      <c r="G93">
+        <v>0.007267363730257898</v>
+      </c>
+      <c r="H93">
+        <v>0.05108122471038103</v>
+      </c>
+      <c r="I93">
+        <v>-0.1036104371534013</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2866591348114318</v>
+        <v>-0.3088831168039994</v>
       </c>
       <c r="C94">
-        <v>-0.07626475317010707</v>
+        <v>0.0270933942050075</v>
       </c>
       <c r="D94">
-        <v>-0.02909703167881698</v>
+        <v>-0.0399987265756367</v>
       </c>
       <c r="E94">
-        <v>0.1840560333498717</v>
+        <v>-0.1227285944098621</v>
       </c>
       <c r="F94">
-        <v>0.3007854707618535</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3201951616978999</v>
+      </c>
+      <c r="G94">
+        <v>-0.04353226053606331</v>
+      </c>
+      <c r="H94">
+        <v>-0.2216128908917541</v>
+      </c>
+      <c r="I94">
+        <v>-0.03917410865446641</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1654430566933193</v>
+        <v>-0.1316621957403244</v>
       </c>
       <c r="C95">
-        <v>0.04826116946853178</v>
+        <v>-0.05859245429356647</v>
       </c>
       <c r="D95">
-        <v>0.002951836469854306</v>
+        <v>-0.08276120342684685</v>
       </c>
       <c r="E95">
-        <v>0.01381076596027005</v>
+        <v>-0.0287540946562141</v>
       </c>
       <c r="F95">
-        <v>0.3893951578348025</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1068958883209055</v>
+      </c>
+      <c r="G95">
+        <v>-0.1259763760387234</v>
+      </c>
+      <c r="H95">
+        <v>0.8698325672548279</v>
+      </c>
+      <c r="I95">
+        <v>0.2367242602524822</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2152327202631915</v>
+        <v>-0.2090769236547055</v>
       </c>
       <c r="C98">
-        <v>-0.09101091524050903</v>
+        <v>0.05906889643189131</v>
       </c>
       <c r="D98">
-        <v>0.04210766065024973</v>
+        <v>-0.06562110997236369</v>
       </c>
       <c r="E98">
-        <v>-0.09721223705588326</v>
+        <v>0.0257934255541638</v>
       </c>
       <c r="F98">
-        <v>-0.05083386094229362</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1668580082896862</v>
+      </c>
+      <c r="G98">
+        <v>0.3284250822420682</v>
+      </c>
+      <c r="H98">
+        <v>0.02180288395520764</v>
+      </c>
+      <c r="I98">
+        <v>0.1602298186189065</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.02785274555845228</v>
+        <v>-0.01759835595199049</v>
       </c>
       <c r="C101">
-        <v>0.02514329368414646</v>
+        <v>-0.02852306252141541</v>
       </c>
       <c r="D101">
-        <v>-0.03425631993779551</v>
+        <v>0.006118887848779869</v>
       </c>
       <c r="E101">
-        <v>-0.01991119868330631</v>
+        <v>-0.03589698229491149</v>
       </c>
       <c r="F101">
-        <v>-0.02207733046567013</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.06255774465368166</v>
+      </c>
+      <c r="G101">
+        <v>-0.1123862720722638</v>
+      </c>
+      <c r="H101">
+        <v>-0.02921384451162039</v>
+      </c>
+      <c r="I101">
+        <v>0.08069524888952107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1086748441805747</v>
+        <v>-0.1162946728715554</v>
       </c>
       <c r="C102">
-        <v>0.03335547192455452</v>
+        <v>-0.02991222138260343</v>
       </c>
       <c r="D102">
-        <v>-0.0424992087118921</v>
+        <v>0.007586632979506545</v>
       </c>
       <c r="E102">
-        <v>0.07173155049889482</v>
+        <v>-0.05421295334674234</v>
       </c>
       <c r="F102">
-        <v>0.07343089777078825</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1143901421501026</v>
+      </c>
+      <c r="G102">
+        <v>0.007741182269313324</v>
+      </c>
+      <c r="H102">
+        <v>-0.001950140453260857</v>
+      </c>
+      <c r="I102">
+        <v>-0.06930189817057913</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.0227894791393415</v>
+        <v>-0.02909349555915332</v>
       </c>
       <c r="C103">
-        <v>0.008373332238771748</v>
+        <v>-0.008031210746439072</v>
       </c>
       <c r="D103">
-        <v>-0.01174061581887315</v>
+        <v>0.009123606468723375</v>
       </c>
       <c r="E103">
-        <v>0.006107711046903126</v>
+        <v>-0.01876827131879557</v>
       </c>
       <c r="F103">
-        <v>0.03468266009641172</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.02635632068237303</v>
+      </c>
+      <c r="G103">
+        <v>-0.01412241762208852</v>
+      </c>
+      <c r="H103">
+        <v>0.008908727112915101</v>
+      </c>
+      <c r="I103">
+        <v>-0.0204775633978794</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
